--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/70_Sivas_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/70_Sivas_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0EA56DB-94A7-4D4C-A613-F7F937B96A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B48D9450-E161-4C53-9DBF-0099E32682A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B731F472-A736-472C-A07C-49FAC686A607}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99F5206F-7A68-46BC-8A93-B268487A5E01}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -836,10 +836,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B0BFC9F5-F738-4EBC-A833-678664EE75A6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{6CFB72A5-E263-4B6E-A1E7-BAB3499FADB9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{BDD86B94-B06D-4FED-A337-72E0F1479238}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{276B1F9D-238B-4ACB-A973-FA8807452738}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BF87DEC0-C751-4E63-ACE4-13E52F3BFD3D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{9F0431FE-B4EA-4CAF-90F6-74B6B34339AB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{550D8E0A-2517-4D16-A620-E4045863E0BC}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{5F059426-39E0-44A1-B9C1-113370030BCD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B7D854-7FAB-4768-A0C5-83C9E9301681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FDE31-BB9D-4342-AA69-D5A12775E8C4}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2482,18 +2482,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D6621C63-7CAC-4783-AC70-A20E35A7C0A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EF24A677-D603-4D86-8A74-A600F1425853}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5E990D8D-E598-461D-8447-8736A4727BC8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4F8AFA98-A1E7-4D9E-8ADC-D1F1010ECDD7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E503AB8-D48B-4898-8748-F1CA05018E1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DA8CDA48-52AD-4AB6-A9A2-01577872192A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{41625B7E-2288-472D-8BBD-13799FB62554}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{019E0853-4FAB-4157-B0E6-0339BE39BAB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F7FEA1EF-41E0-4950-8EB5-459E1BC05B6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A6EF966F-638E-46C9-9973-6138E6F0905D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DA02A034-332A-404D-AAFA-F0EFC8E2F358}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C002CB8B-48AC-4DAA-B38B-2724AC2808A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1E790C03-2CB8-4158-972B-BEE8B5FFCB4C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{74F77FB1-FDB4-43EE-930A-CB3EC7AF5694}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2B0404F6-2D1D-4EEE-952D-3D731F89E9D4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{66F47DB0-1ADC-4CB6-8BE1-0EE486A0FBD6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E7810BD-A9DB-4820-9E56-C902694E60B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F63C934C-542C-4CBB-B661-46988E0BBC91}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{51A2783C-7975-42F7-AC9A-059BDE68B6DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0B9D5010-6A07-462F-87C1-59C494C61A60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{27FB9AF7-2116-4CA9-8BB7-86E4EF57B5EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A5C41481-57F8-41B1-ACB9-2AD69C256B30}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A467BE8B-746B-4803-8A8B-BA26B1337077}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{89E279FB-F533-4E07-AC30-6C11354B9396}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2506,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F7C32-0AC4-4367-87B8-BA523061D2B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5397F2CB-C50F-4C78-9CD1-995090FE8B2D}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3721,18 +3721,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{21EC68B2-ABB3-4FCE-9F27-176C0AA5D42B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AFF6F8A8-17BF-42C3-A2D0-DCF72D302ED5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9EA4E097-AE48-4CD7-9C93-211E01F8108E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7E7F54D3-1139-41E9-8C77-10CE279B9D65}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A438249D-18AC-492E-A7E6-D2D6DA77BA33}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5D01B211-45AE-4BF8-8215-F48E9A0F9E1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{62547C4B-AF5E-4E80-8EDB-C645649F25F1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4C014DF9-93B5-41BD-B6EB-64052B2852F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0E09E430-246A-4286-8004-03E1CCBCAE35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{44BF12C6-85D6-47C0-AF29-29405724AADF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B7216023-9EE1-4C66-8418-D929B9BF6780}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{79A2DDFC-2FE0-428E-A19A-1F84A3EBC8A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D4F4B086-D364-4AD2-A478-AABA1335E07A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{11C82661-922A-420C-AD42-2A6094411D40}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CF0D0133-3C25-4D14-9B9A-9DD627C9C471}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{26422020-E213-4718-9D60-DF67C51E905C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E8064C89-034D-4B7B-AC0D-B20EB79F29E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F4307CA3-944A-4118-A01E-19C3E912A090}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EC768156-2BAD-47FE-89F4-0C142619EA20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DE015B2E-FDBA-49EE-9A2B-1FC2399E2E2F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{478224DE-2002-4C37-8F00-05A85541DA38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1B4DB3E-8392-4604-B62D-762D659A59F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7DBD8475-F708-4D2F-87A9-8439976C8301}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DA9FBC1A-D8A2-478D-8892-10B3ABCE659A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3745,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AA9E2C-EFC5-44C5-A8E1-E10ABC9CA23B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7CD92E-77DE-4384-A64E-352BD4123839}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4948,18 +4948,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{565AF023-F3C5-43D0-8052-AECC4E9A9DAA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E4BDFCE4-DF00-4382-A917-FE5BBC5E8BB9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D162448-0462-4309-90D7-59AB1D88A41E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{52F7035D-5A30-4EA2-AC04-24A6272A4E60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1C9E29D2-7C30-466B-842A-4171580960C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D3B115CB-BA1D-4A23-A863-C40AF33D3BA4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EDBAFF26-B88B-4140-AAF0-1E6B3257785F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8960CEF5-77AD-4A2D-9ED6-5F050D2E4012}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9C8705DD-CA2B-4C11-B47D-70524FF8F35D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CADE86C4-C154-42D6-9C04-A8AE409B1B58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BC0BF6A1-0607-4333-81A4-C9771FD5A275}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{55E01861-4F85-4F80-8193-EA3CD3F62650}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9F29ECF-A034-40F2-9599-436EF978E8E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EF7FDE7C-B2E1-4B93-9CA3-ABFE915D881C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{11D1BB5F-D024-4F4D-B3E5-918858E89D4C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0214D251-ACBD-4257-82F3-4C64196D3759}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{39D094E5-1228-4105-88FB-AADB0600A52C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9F5189F6-CA87-4311-9138-01B9597562FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D21B5A1E-EF89-4DC2-BE75-D0B203B1B04A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E24B2509-7C27-4416-B71E-053479EF659A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A6C88290-2233-48C1-865C-5D4D3430890D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0F1BB28F-DE63-415A-ACC9-A141EBE90A86}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{740455D8-4C3F-4307-A25A-33A8CC51B93F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5E95DC8A-87AB-4C19-9983-C189984FDDA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4972,7 +4972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F3F7B3-B824-4CDB-89C1-B8189804D525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8858FD77-70C8-4A2E-91DA-137667C869D3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6151,18 +6151,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{13CC782B-D484-4F4D-9D82-9B3DF65B9E30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9E3C82E8-037A-4796-88EA-76C87BE2D14D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FD45773B-892C-4DCC-8AD8-533DB8FA00BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{14EE9382-F3C7-4F43-9A43-870F17C0F0EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0777D478-EA75-439C-84C1-800AA259CDB4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4634CE25-3B9A-4637-90C9-BA64DE614367}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{01080E3B-2C6B-468D-8491-4BE3F5C111C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A261E884-C4B7-4FFB-B300-AB5EF62A1403}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6AE45699-D668-4566-8D72-7D098702E016}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6C79C4D9-8C4E-4E1D-AB6C-08AC3815021C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{328AA232-257C-432D-9B97-1723F70C909B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{17BB547E-CA6A-49CC-8F98-FEB3A3E64AA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F0B8CB0C-9D3A-46B3-AA83-6C8F332C42A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{41592651-EFFB-49D6-9C21-8237A43244E1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A5DE0442-1A9A-4E31-AF6D-87C11BE1EEFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7DEBE6BC-3B37-4008-A68A-CCDECF6A96C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CCB6BAF7-94C3-4D25-BE31-E746D9139427}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C332AFFE-7CE9-4026-B1AA-0B937A811172}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{92A8834F-80A5-424E-B348-353A4760EE4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8B82EF1D-BDF5-4ADC-A708-4A24B987011C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B7921301-D3B8-4378-8D38-D5ACC7E9F50C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AA71AB45-4D99-43AB-B761-CA260D211E5E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5486DC45-9437-4963-A79A-E129712F0233}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE4E1CA1-C472-48CF-9722-A816421AE9BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6175,7 +6175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2856BC6-65D3-4046-AFD1-565EBED96A94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D59C70-07A4-43CD-B5AD-BA9E311172AD}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7420,18 +7420,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1EFD2B79-8095-4E6B-A260-D0B80CAD6028}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{42A20377-9B0A-4B73-8297-4081736FF754}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{30BF4620-B2E0-4B98-85AE-8F08A64C36F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E56842D7-7095-44AD-9556-E8D9EF5FDAF5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2C5B268D-764A-43A7-B37A-784B280F46C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{70B9A4AE-0757-4090-9654-845AE9431814}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{93A9D831-4B47-446C-8901-4FD4AD8A12D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5F4144FA-B6D6-45AB-BB06-9F361DDED8D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{64BD639D-15D7-4397-A1DF-9A85B1453835}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1426C7F3-1A37-4950-9B49-D55280ED0DB7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{36683D8C-67D0-455F-B382-8A90FFB8C418}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6068A75A-CB18-4108-AF57-F398257F4591}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9C5C6081-03BE-45E5-A112-6428C0C2751F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B595ABB3-C35B-4C51-AA58-3063403165A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{95BB6653-B2FC-475F-A2F9-21E2CC8F36FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{074AC1CD-2A1B-47BE-B7CE-DCD17B08CBAE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{37ABB5C0-6742-46DB-A7A7-4153DFB38DD7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C0106E33-E516-4D57-B4EE-EFF9B83ACAA1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9E967635-E91E-4C7F-A514-0EC1E9A02D4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AFE336BA-61E0-4542-8566-88B544BDF39C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2DAA8684-EC15-481F-9610-2AAB820B4008}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8ED35EC7-C769-4D6B-86E2-489D4FEA6F50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{16961F7A-4872-4356-ADF4-3EDA899890F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F384031F-433C-4056-A278-929C77860D37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7444,7 +7444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4C27F3-491C-4239-968B-9C2417136FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D30F56-A1B0-431D-979D-AB50AC9FD4F2}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8689,18 +8689,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A0AFB000-7F87-46B7-974B-7B78CF5BEDE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3FDBEA37-34FB-432C-B01B-D80F85699634}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{10E2CD03-1966-4753-B0AE-A8FD3E8F20DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{24BFB090-C895-4ACD-8997-5B62EB3FB4C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B1A8A678-7F53-47D9-9B09-C667B4BF29A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9E0E6610-0502-4F8E-8DE0-3F65179B1DAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EA0A4D06-2E05-4ED2-8C09-FF951C8DCEEC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{815741E3-FA8A-43BE-B5E2-BAD837BA846F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{19198928-A756-4BF1-A568-48EDBB780CC7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FFAC05FB-9500-4E28-8CBE-C681FA32859A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{29294F8E-D122-42C0-84A2-C6F074E8C5E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{30F7524D-3A33-465B-BE04-3EDD3EF788E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D21E9F7E-546A-4F0E-B33F-B88F9E8967DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C2C44CA7-8613-407B-BD28-085A9EA9B2C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9F5CB11-0661-4870-97E2-106FE4F9F9AD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CF63DBE7-2660-4650-B011-2F6883811619}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{90F8568C-4D7F-43D9-B9E3-3775E223B839}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CC568E33-B666-4B96-93DC-CA204DA3AD2E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{32C34BA8-B97A-44FB-A36B-0FD2B118FAC7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5E3ACA19-57BD-4B9C-872C-F1BCE5695FFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{45499E6C-FA3A-4739-B655-54BD5E1D6AC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{428EAF90-982F-4A14-8362-C13E47685E7E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C13B4026-F7DE-4C05-A32F-60861513BB8D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ECECEA25-83FD-4C36-B25A-5FF667B19718}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8713,7 +8713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08D220E-4F99-46BF-9AB9-011F4A8B62E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548AC311-C0B8-4E44-AA9F-89FC0F3C28C0}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9958,18 +9958,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{31227CD7-1C70-41A1-94B0-6273C2B1A202}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{01F52946-CB0B-42C5-B94A-3A361E501D6C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{70F66BB7-3DA9-4A2D-82AE-FC10276DE42B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A7924706-DBCA-4E4D-A85D-2946746A61CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{13CEDB1A-C208-4073-B801-21F9D5213404}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E01B296D-7294-41EA-86AE-6D1F6D6D2134}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C074239B-8450-4A1E-9315-14F9F73EE871}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C9F65297-2E78-4D19-90C3-16D5C22FE79F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7319B27D-FFE8-4338-9801-8B54D9F476EB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1F5FABCD-5199-425F-8854-6CD66E49B77B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{13A0AAF2-7DF3-49F9-9BDA-C33A5F386BD1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{645CB76C-2446-415D-A35F-3D95E7AB0601}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D19545DE-CB9A-48B7-9DC0-FCA75D40AC7E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16E59206-9C54-43BB-B407-8AB5610F47A9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7DE1F68C-CA5E-40A4-BABB-4D4F2A7B7AEC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{327F1B44-29DF-4B79-ACD5-C0AA3CB47E3A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DEB41ADD-4CEC-4FE2-9B22-188CDC3E7BB2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4DDE066D-A0C3-4CC4-AEDD-892161410AD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{823FF385-D505-4E67-A0DC-21A6B136C203}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DE19AFA6-3FE1-4719-9520-077383C05DBB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{487C3481-765F-4C0D-8C62-BB3786168F85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{569CEC6B-91D2-4D45-9C3B-A274C2CF1AF8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{803DDE68-C8C0-4E76-943E-1FCF0CCA8836}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7CF16EE4-A190-4445-AD9C-66D2A1C1A035}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9982,7 +9982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F4145A-20E3-4BBA-AA91-85D6710D3DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5701553E-A792-4F57-BE2B-65147A694DA2}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11221,18 +11221,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CB58E899-3C60-48DF-A36A-7F391B741170}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D1AD98AA-5349-4E92-BFF4-40749F206238}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{17A3B3EC-1B3F-4519-A115-E1DD64C58187}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{62ADCEC6-1408-4C7A-837B-61ED4CB2FF7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D70EA77C-016D-44B2-AEA9-9E907F78A050}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{11703CDE-A319-47CC-99BE-530E04FD43D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{91328915-C184-488C-9A11-0C770ABCC453}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{14CEC6E8-7179-4AB0-951B-6D0AEB2C7ADD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1D0904A3-AE39-4D38-B98B-B050C9DC20EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{81DE00A2-1300-42AF-B2A0-2474A5DD0EFD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F509A85D-8D05-4C07-B12D-96CC6D2422E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B64DD542-1370-4529-B851-AE4FF3CA0D20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6D213021-9B3F-4C6E-B654-4FCED3A0202C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A5DBBB32-B0C9-4D88-9DB2-6C20E20915FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8017B38C-6327-45C0-B78A-CB829737AD1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4AD1E290-D6EA-43BB-922D-1E47F1A89097}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C15FA97C-9FE8-42B8-92C3-7F83AD76010F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EFD5004E-8C51-4F74-A166-7BB0B54BC13B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D3B3EF6-5817-44CB-B709-315380D33EDF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B54E59B2-2128-460E-8CCE-82B28312A8AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6ED39912-96AC-4BF3-9A89-DF1635599E32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6105CD20-09F0-45F3-918F-64484BED75BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5DCB7E83-0A5D-48B4-B4C3-4B1452A769E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9B8F4EED-44E4-4164-AFC8-70938D967161}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11245,7 +11245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD1D73F-490A-475B-9075-333DD774DB01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1916FE01-9C2A-46B9-A4F4-D1C12A220419}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12484,18 +12484,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{85C71D8A-B4B4-4752-B5C2-CBC427074518}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{84129728-4250-4017-A919-D174BC189307}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9C7F4C73-7BC2-47F9-9928-A3D4190F09D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{54B0FA7B-FE7F-4612-A8BC-6D08A53A9770}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F180874-C6CE-4B70-A7A6-EC80FA8F195D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C2813F5E-BDC1-4EEB-A960-FE41FF4A248B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{21725380-0B1F-48C6-844A-3238E15DD617}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5A9C155C-5C0E-433A-AF83-5D2C12DEDA62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{279A33F5-FAE1-411B-9D07-67BF5AA911CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{061390B4-4324-40F2-B51A-BDC60F8EB8AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{63A6034C-2189-4547-847F-FC7AAC55E111}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DB56D218-E269-43BD-941A-E694FE4C688A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4111368A-1CA7-45F0-BCAD-C1F4A45BD16E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{79C92D89-8AA5-4133-B26B-D745DA8A42F0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{82957924-29FE-46DE-ABBD-B31E13ACCF04}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9ACC86F1-4250-49A3-93B1-F9D42724198A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{24BCF032-D927-4DEA-879F-C48848AF174E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E3B09591-6DFC-4110-95EA-390C62F9D4F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{411E4E53-2769-4389-A5D8-4A4F552F8DBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DDCCF95E-E03F-40B8-9E26-C0F51AF3F19D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{73A5EEC6-3B03-45DC-8E0A-D7F9FCE4D441}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E98716F9-FC67-458B-BC7C-2F5DC08C17C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C30C5CF8-090F-4FA8-8AB0-9E48979C463B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D101C2EE-965E-47BF-956A-6A1D81501957}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12508,7 +12508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2C9C02-EAF1-4EB6-BE12-9EC835FC8E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7783CB82-8D0E-4F2B-ACF2-5EEA3D5ACF0B}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13739,18 +13739,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0131D283-27DE-4F8D-9DE8-504DD5FA2D72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{36DAE5FC-1904-4731-B7DC-D86F99DA96DB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4BA7E6B4-970F-4DB5-897B-6FC1D0B2C294}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8698FCEC-EAC0-4358-9146-D5C003D45FBF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C7ACF5A9-CB88-4B27-8387-681EE241D650}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F0AE63D0-ABE8-49DB-A69E-A006F0976A60}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{57FFBCEB-631F-4D63-93E7-2E152AF7E084}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AC3F5CF0-9566-41E2-A0D5-1198D763DD77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9744D3E2-727D-446B-AFC2-1B6880F30783}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A9EC4850-EE48-4396-A362-DC5F16E81041}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2086E79F-A2B4-4114-828E-B3D474D803DC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7CD66998-F638-4D8F-81B1-397C4AA20386}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CFD17D50-C614-4C30-8EE2-B38FC5A92CA8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{47FBEF4F-CD54-47AE-9DC2-0F9C6403C468}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{366696DE-8250-4FA6-A1D9-0E932A06A6F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4D681835-860F-4F22-9856-E1B1B01AFEF3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0280C259-1EB0-49CB-BBBA-4BD3E5090D2E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EA5649BE-81B2-484D-8C02-936FA15D2C3F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AE7B50D7-0645-4E8E-9578-FC3358713637}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{41C41617-6E8A-4C7B-A6EF-5ECDDA4607B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{428F68C5-DD56-4AF7-9DC9-DA15AAE37C47}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0E89EBEB-C7A6-4E31-A475-DF5B81F51851}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1B520452-7126-4F24-ADE9-A9CED0F76062}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B0973177-2193-447B-9B0B-0C95434A88EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13763,7 +13763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179C7DF8-55A4-4A03-B8E9-FFB56AA83954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E8B6B6-1AAF-4E78-B2C2-6E91113CBCE0}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14990,18 +14990,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA2B72DB-6E8A-4A17-A00D-976081B6EA62}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC9D0B49-420D-4A3E-BF34-EFC0CA73E8CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BB39C7EA-B40E-4461-B09E-EAE78E3DD93D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{476BC81A-5D32-4924-BC83-ACBBD38E6D28}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{86587C31-7063-402A-90D6-799B7E3D1DE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A34E28F-6B1A-465D-AA0D-C3CA08DB6EB8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C540CF10-F3B3-4AC4-999A-64AD5B0E33E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{26EAC629-01ED-41D3-A9F8-6C4F76293126}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ECE39283-6CB1-4856-BFF7-5220DF4C940A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{54A73CE6-11E8-4B28-8980-1AABE7CE25ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0E079972-8037-4D40-8CC8-12B377261A35}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2A722606-6049-4EBA-8F03-312AAEA81742}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E5E286D0-AED5-4523-96BF-45CD93D45492}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{48588273-95CA-43BF-9B41-6E6AD509F3F2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4BEAEEE7-BB24-42F8-A0D5-58434B49D0D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2E7D1BA2-4270-4C2B-943B-28FC1169660C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A9A384A0-B239-494D-89A2-29A68D0EB715}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{885E40D9-8EE0-452E-BA35-BECF6EC3DF74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E44B1427-19D6-457C-99B8-A3CDF3027392}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C24A2A94-6664-4AC7-BFB9-0528CEFB1AAF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{82E0CB63-A662-4797-9B4B-F06E1B1845EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FAF1C7EE-F224-4A9C-9DB9-78CEB8CC71C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7E37C4B0-3554-47D3-9A1C-792D9CEEE9A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D113CA86-762F-4CD3-8A80-1E7AC1DE19DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15014,7 +15014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE57DD5-73E2-40EF-B768-C066334AD40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2E17F0-6C1E-4B6D-98D6-3E446A2556CD}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16241,18 +16241,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{08F8A466-5D2A-44C2-A586-247A6ECC6E7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E289D387-3320-4EAC-8694-53D67C1BAAFB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6810C42C-CF51-4DF6-AB24-DEBAAB4EF6CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{803A12B6-D1EB-4648-83D2-C46D68EFE4E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D541052E-8661-4505-9E09-51E7E69558C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DF81BDD3-CE76-4EA6-9692-A8D09D363837}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3948AFB9-0334-4161-8FCD-186651419EF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ACA43312-44BB-43D1-BCCD-9111FF950E13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{56BE4192-F0F3-4764-BCB9-5AD56BAAF8E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{42342BB7-2FEF-4BEA-B7FA-2F3D3A857AC1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3C7D30B0-2445-47C9-99E1-A68B23C54F9A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{128FBAE2-74A9-48B3-9109-14E332FC2CF2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FDCCF7BE-7CE4-4CCD-8174-19C0DD45BD02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{01CBCE4C-33E6-4BD2-956C-C67CE7E6E549}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{63041780-6EC7-4E2E-8F1A-D4A09B860F6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E151C459-275B-48A1-9791-5A86E393B7BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F00C26C5-286F-441D-94AF-2E5C2F449559}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3F3105A7-D4A3-40E0-9FB1-A2694018D946}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D3B902B-9DD1-4535-8AC6-BAB8B24E095F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6B1A3847-EF7E-426A-A692-D9D8E12024C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8131D2B3-DC06-47BC-8B06-EED9DADD4DD3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8DBAF682-C16F-4172-AA14-53EEF86B9743}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E11987E1-C8EE-4AC2-81EE-81CA8BF1E2BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{528D7643-D741-4B51-84BD-177AE417D482}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
